--- a/06_Decision_Making/Decision log.xlsx
+++ b/06_Decision_Making/Decision log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61576\Desktop\2021 Semester 1\COMP8715 - Software Engineering\Decision making\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61576\Desktop\2021 Semester 1\COMP8715 - Software Engineering\21-S1-2-C-Cinema\06_Decision_Making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6645B28C-B453-4B0A-92D3-DF11B21CDEDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCC0FB5-ABBE-4442-B655-EF534BC37F58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>title</t>
   </si>
@@ -150,6 +150,34 @@
   </si>
   <si>
     <t>We are going to start work this weekend no matter whether we receive the response. But we will still keep communicating with our client and try to find another contact way except outlook. We will do some preliminary research to define team charters so that everyone in our team can focus on their components.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19/3/2021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix our repository further</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tim, all team members</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>According to the suggestions from Tim, we needed to add more details to some components of our repository. It included Risk analysis in the SOW, and we also needed to present risks and time line in our landing page. Besides, we need to transform the description in our landing page to the corresponding links in our repository in github.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>We can make our repository as clear and systematic as possible so that our client, tutors and convenors can observe our progress and achievements clearly.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>It adds more workload to our whole team. It may also slow down the whole progress.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>We decided to follow Tim's advice and worked for it.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +468,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -693,13 +721,27 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
